--- a/biology/Biochimie/Harvey_Itano/Harvey_Itano.xlsx
+++ b/biology/Biochimie/Harvey_Itano/Harvey_Itano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harvey Akio Itano (né le 3 octobre 1920, décédé le 8 mai 2010) est un biochimiste américain plus connu pour son travail sur la base moléculaire de la drépanocytose et d'autres maladies. En collaboration avec Linus Pauling, Itano a employé l'électrophorèse pour démontrer la différence entre l'hémoglobine normale et l'hémoglobine due à la drépanocytose. La publication de leurs recherches en 1949  « Drépanocytose, une maladie moléculaire » (en collaboration avec S. J. Singer et Ibert C. Wells)[1]  était un évènement décisif dans la médecine moléculaire et l'électrophorèse de protéine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harvey Akio Itano (né le 3 octobre 1920, décédé le 8 mai 2010) est un biochimiste américain plus connu pour son travail sur la base moléculaire de la drépanocytose et d'autres maladies. En collaboration avec Linus Pauling, Itano a employé l'électrophorèse pour démontrer la différence entre l'hémoglobine normale et l'hémoglobine due à la drépanocytose. La publication de leurs recherches en 1949  « Drépanocytose, une maladie moléculaire » (en collaboration avec S. J. Singer et Ibert C. Wells)  était un évènement décisif dans la médecine moléculaire et l'électrophorèse de protéine.
 En 1979, Itano fut le premier Américano-Japonais admis à l'« Académie des Sciences nationale des États-Unis » (dans la section de la génétique).
-Itano a été professeur honoraire de pathologie à l'« Université de Californie » (San Diego)[2].
+Itano a été professeur honoraire de pathologie à l'« Université de Californie » (San Diego).
 </t>
         </is>
       </c>
